--- a/framework/Database/Airports/airports.xlsx
+++ b/framework/Database/Airports/airports.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarc8\Documents\github\MDOAirB_base\framework\Database\Airports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarc8\Documents\GitHub\MDOAirB_PhD\framework\Database\Airports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45BC4F0-5D40-488D-B1C4-DC2719C5121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A5EE6-A871-4F9C-9AE1-D6CC45CEF5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="-23148" yWindow="-24" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="airports" sheetId="1" r:id="rId1"/>
+    <sheet name="Airports" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,28 +823,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:S16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:S16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:S16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="APT" dataDxfId="20"/>
-    <tableColumn id="2" name="APT2" dataDxfId="19"/>
-    <tableColumn id="3" name="DR" dataDxfId="18"/>
-    <tableColumn id="4" name="AR" dataDxfId="17"/>
-    <tableColumn id="5" name="POP" dataDxfId="16"/>
-    <tableColumn id="6" name="CR" dataDxfId="15"/>
-    <tableColumn id="7" name="BPI" dataDxfId="14"/>
-    <tableColumn id="8" name="GDP" dataDxfId="13"/>
-    <tableColumn id="9" name="LAT" dataDxfId="12"/>
-    <tableColumn id="10" name="LON" dataDxfId="11"/>
-    <tableColumn id="11" name="ELEV" dataDxfId="10"/>
-    <tableColumn id="12" name="DMG" dataDxfId="9"/>
-    <tableColumn id="13" name="TREF" dataDxfId="8"/>
-    <tableColumn id="14" name="TORA" dataDxfId="7"/>
-    <tableColumn id="15" name="TODA" dataDxfId="6"/>
-    <tableColumn id="16" name="ASDA" dataDxfId="5"/>
-    <tableColumn id="17" name="LDA" dataDxfId="4"/>
-    <tableColumn id="18" name="AVD" dataDxfId="3"/>
-    <tableColumn id="19" name="AVA" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="APT" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APT2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DR" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="AR" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="POP" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CR" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BPI" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GDP" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LAT" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="LON" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ELEV" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DMG" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="TREF" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TORA" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="TODA" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ASDA" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="LDA" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="AVD" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="AVA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,11 +1146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="A1:S16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
